--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Project\UnityProject\ETGameLesson\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\UtopiaOnline\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3F8912-74A4-4BCC-8533-EEC6897C2A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB0151B-0697-4E2D-893E-8A461D258F52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -117,6 +117,22 @@
   </si>
   <si>
     <t>ChatInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Room2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Match</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -507,19 +523,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H17"/>
+  <dimension ref="C3:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -583,7 +599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -800,6 +816,57 @@
       </c>
       <c r="G17" s="6" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -817,13 +884,13 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" style="2" customWidth="1"/>
+    <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -887,7 +954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C6" s="5">
         <v>200</v>
       </c>
